--- a/Requirements/SIQ/TAWA_SIQ.xlsx
+++ b/Requirements/SIQ/TAWA_SIQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="150">
   <si>
     <t>From which source the top travel destinations appear statistics or ratings of the website?</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>What is the length of the text fields of the username , email and full name?</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
   <si>
     <t>Is there a confirmation password field in the  sign up form?</t>
@@ -518,12 +515,108 @@
   <si>
     <t>Our proposal is to contain a search box to search for an existed user and delete and add buttons.</t>
   </si>
+  <si>
+    <t>The username shouldn't exceed 14 characters, 24 for the email and the full name</t>
+  </si>
+  <si>
+    <t>Yes that would be nice to have</t>
+  </si>
+  <si>
+    <t>A navigation bar with multiple tabs would be nice</t>
+  </si>
+  <si>
+    <t>Bowser computability will be considered as a part of the functional testing not the NFR</t>
+  </si>
+  <si>
+    <t>A password reset link yes</t>
+  </si>
+  <si>
+    <t>The message should be displayed indicating that "The data entered were invalid, Please re-enter your data."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>They should be tabs to be clicked</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>The rating system will be based on "Stars" .</t>
+  </si>
+  <si>
+    <t>They will be listed in a descending order based on the number of stars.</t>
+  </si>
+  <si>
+    <t>Available places and restaurant for this destination , also the airlines available to be booked.</t>
+  </si>
+  <si>
+    <t>number of seats / Level of services (Economy - Business - Luxurious)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt Air, Fly Emirates , Qatari Airways , Turkish Airlines, Lufthansa , Air France </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes a dropdown list </t>
+  </si>
+  <si>
+    <t>Radio Buttons</t>
+  </si>
+  <si>
+    <t>any domains will be accepted as a valid email as long it satisfies a mail format</t>
+  </si>
+  <si>
+    <t>An error message shall be displayed "This username is already reserved. Please enter a different username"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations !  A new account has been created successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, also a user listing page should be provided so the admin can also click on the user he wishes to delete </t>
+  </si>
+  <si>
+    <t>Two buttons will be provided one for a Grid view and another for a List view</t>
+  </si>
+  <si>
+    <t>Places, Airlines, Restaurant Menus, Ratings</t>
+  </si>
+  <si>
+    <t>Yes a button for booking or giving  a feedback</t>
+  </si>
+  <si>
+    <t>through a  give rating button and a comment section to provide further details</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Separate page</t>
+  </si>
+  <si>
+    <t>Yes an average will of the total ratings will be shown.</t>
+  </si>
+  <si>
+    <t>Only after filling it</t>
+  </si>
+  <si>
+    <t>After filling it</t>
+  </si>
+  <si>
+    <t>From the user listing page, every user should have an edit or delete button.</t>
+  </si>
+  <si>
+    <t>After filling the form</t>
+  </si>
+  <si>
+    <t>Drop down menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,21 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -607,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,11 +701,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -690,10 +763,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -720,23 +792,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -744,9 +810,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1052,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,12 +1139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1089,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,14 +1180,14 @@
         <v>30</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>85</v>
+      <c r="G3" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1130,14 +1201,14 @@
         <v>24</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>85</v>
+      <c r="G4" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1151,14 +1222,14 @@
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>85</v>
+      <c r="G5" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1172,14 +1243,14 @@
         <v>6</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>85</v>
+      <c r="G6" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,14 +1264,14 @@
         <v>31</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>85</v>
+      <c r="G7" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,14 +1285,14 @@
         <v>23</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>85</v>
+      <c r="G8" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,14 +1308,14 @@
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>85</v>
+      <c r="G9" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1258,14 +1329,14 @@
         <v>22</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>85</v>
+      <c r="G10" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,14 +1352,14 @@
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>85</v>
+      <c r="G11" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,13 +1373,13 @@
         <v>37</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="12">
         <v>43470</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>43470</v>
       </c>
     </row>
@@ -1323,13 +1394,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="12">
         <v>43470</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>43470</v>
       </c>
     </row>
@@ -1341,589 +1412,737 @@
         <v>50</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="D14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G15" s="10"/>
+      <c r="D15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G15" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G16" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G17" s="10"/>
+      <c r="D17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G17" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G18" s="10"/>
+      <c r="D18" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G19" s="10"/>
+      <c r="D19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G19" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G20" s="10"/>
+      <c r="D20" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G20" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G21" s="10"/>
+      <c r="D21" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G21" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G22" s="10"/>
+      <c r="D22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G22" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G23" s="10"/>
+      <c r="D23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G23" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G24" s="10"/>
+      <c r="D24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G24" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G25" s="10"/>
+      <c r="D25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G25" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G26" s="10"/>
+      <c r="D26" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G26" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G27" s="10"/>
+      <c r="D27" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G27" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G28" s="10"/>
+      <c r="D28" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G28" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10"/>
+      <c r="D29" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G29" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G30" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G31" s="10"/>
+      <c r="D31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G31" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G32" s="10"/>
+      <c r="D32" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G32" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G33" s="10"/>
+      <c r="D33" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G33" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G34" s="10"/>
+      <c r="D34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G34" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G35" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G36" s="10"/>
+      <c r="D36" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G36" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G37" s="10"/>
+      <c r="D37" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G37" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G38" s="10"/>
+      <c r="D38" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G38" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G39" s="10"/>
+      <c r="D39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G39" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G40" s="10"/>
+      <c r="D40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G40" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G41" s="10"/>
+      <c r="D41" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G41" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G42" s="4"/>
+      <c r="D42" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G42" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>115</v>
+        <v>85</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="D43" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G43" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G44" s="4"/>
+      <c r="D44" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G44" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="D45" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G45" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G46" s="4"/>
+      <c r="D46" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G46" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="D47" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G47" s="19">
+        <v>43592</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="13">
-        <v>43621</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="D48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="12">
+        <v>43621</v>
+      </c>
+      <c r="G48" s="19">
+        <v>43592</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Requirements/SIQ/TAWA_SIQ.xlsx
+++ b/Requirements/SIQ/TAWA_SIQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
   <si>
     <t>From which source the top travel destinations appear statistics or ratings of the website?</t>
   </si>
@@ -610,6 +610,57 @@
   </si>
   <si>
     <t>Drop down menu</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_047</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_048</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_049</t>
+  </si>
+  <si>
+    <t>Does the rating system accept half-star rating?</t>
+  </si>
+  <si>
+    <t>Can the user update or edit his/her rating?</t>
+  </si>
+  <si>
+    <t>Is there an option for negative and positive comments?</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_050</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_051</t>
+  </si>
+  <si>
+    <t>Can user upload photos in feedback?</t>
+  </si>
+  <si>
+    <t>What conent shall "Reserved Flights" page shall contain?</t>
+  </si>
+  <si>
+    <t>What is the maximum number of seats can be reserved by one user?</t>
+  </si>
+  <si>
+    <t>Can the admin update all fields in user page?</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_052</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_053</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cancel trop button</t>
+  </si>
+  <si>
+    <t>4 seats</t>
   </si>
 </sst>
 </file>
@@ -767,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,11 +861,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,32 +1178,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="100.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="100.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1211,7 +1268,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1274,7 +1331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1440,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1461,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1421,11 +1478,11 @@
       <c r="F14" s="12">
         <v>43621</v>
       </c>
-      <c r="G14" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -1442,11 +1499,11 @@
       <c r="F15" s="12">
         <v>43621</v>
       </c>
-      <c r="G15" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
@@ -1462,11 +1519,11 @@
       <c r="F16" s="12">
         <v>43621</v>
       </c>
-      <c r="G16" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -1483,11 +1540,11 @@
       <c r="F17" s="12">
         <v>43621</v>
       </c>
-      <c r="G17" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1504,11 +1561,11 @@
       <c r="F18" s="12">
         <v>43621</v>
       </c>
-      <c r="G18" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1525,11 +1582,11 @@
       <c r="F19" s="12">
         <v>43621</v>
       </c>
-      <c r="G19" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -1546,11 +1603,11 @@
       <c r="F20" s="12">
         <v>43621</v>
       </c>
-      <c r="G20" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -1567,11 +1624,11 @@
       <c r="F21" s="12">
         <v>43621</v>
       </c>
-      <c r="G21" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
@@ -1588,11 +1645,11 @@
       <c r="F22" s="12">
         <v>43621</v>
       </c>
-      <c r="G22" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
@@ -1609,11 +1666,11 @@
       <c r="F23" s="12">
         <v>43621</v>
       </c>
-      <c r="G23" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
@@ -1630,11 +1687,11 @@
       <c r="F24" s="12">
         <v>43621</v>
       </c>
-      <c r="G24" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -1651,11 +1708,11 @@
       <c r="F25" s="12">
         <v>43621</v>
       </c>
-      <c r="G25" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
@@ -1672,11 +1729,11 @@
       <c r="F26" s="12">
         <v>43621</v>
       </c>
-      <c r="G26" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -1693,11 +1750,11 @@
       <c r="F27" s="12">
         <v>43621</v>
       </c>
-      <c r="G27" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -1714,11 +1771,11 @@
       <c r="F28" s="12">
         <v>43621</v>
       </c>
-      <c r="G28" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -1737,11 +1794,11 @@
       <c r="F29" s="12">
         <v>43621</v>
       </c>
-      <c r="G29" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
@@ -1760,11 +1817,11 @@
       <c r="F30" s="12">
         <v>43621</v>
       </c>
-      <c r="G30" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
@@ -1781,11 +1838,11 @@
       <c r="F31" s="12">
         <v>43621</v>
       </c>
-      <c r="G31" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>65</v>
       </c>
@@ -1802,11 +1859,11 @@
       <c r="F32" s="12">
         <v>43621</v>
       </c>
-      <c r="G32" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -1823,11 +1880,11 @@
       <c r="F33" s="12">
         <v>43621</v>
       </c>
-      <c r="G33" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -1844,11 +1901,11 @@
       <c r="F34" s="12">
         <v>43621</v>
       </c>
-      <c r="G34" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
@@ -1867,11 +1924,11 @@
       <c r="F35" s="12">
         <v>43621</v>
       </c>
-      <c r="G35" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>71</v>
       </c>
@@ -1888,11 +1945,11 @@
       <c r="F36" s="12">
         <v>43621</v>
       </c>
-      <c r="G36" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
@@ -1909,11 +1966,11 @@
       <c r="F37" s="12">
         <v>43621</v>
       </c>
-      <c r="G37" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
@@ -1930,11 +1987,11 @@
       <c r="F38" s="12">
         <v>43621</v>
       </c>
-      <c r="G38" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -1951,11 +2008,11 @@
       <c r="F39" s="12">
         <v>43621</v>
       </c>
-      <c r="G39" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>77</v>
       </c>
@@ -1972,11 +2029,11 @@
       <c r="F40" s="12">
         <v>43621</v>
       </c>
-      <c r="G40" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>78</v>
       </c>
@@ -1993,11 +2050,11 @@
       <c r="F41" s="12">
         <v>43621</v>
       </c>
-      <c r="G41" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>79</v>
       </c>
@@ -2014,11 +2071,11 @@
       <c r="F42" s="12">
         <v>43621</v>
       </c>
-      <c r="G42" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>85</v>
       </c>
@@ -2035,11 +2092,11 @@
       <c r="F43" s="12">
         <v>43621</v>
       </c>
-      <c r="G43" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>86</v>
       </c>
@@ -2056,11 +2113,11 @@
       <c r="F44" s="12">
         <v>43621</v>
       </c>
-      <c r="G44" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>87</v>
       </c>
@@ -2077,11 +2134,11 @@
       <c r="F45" s="12">
         <v>43621</v>
       </c>
-      <c r="G45" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>88</v>
       </c>
@@ -2098,11 +2155,11 @@
       <c r="F46" s="12">
         <v>43621</v>
       </c>
-      <c r="G46" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>89</v>
       </c>
@@ -2119,11 +2176,11 @@
       <c r="F47" s="12">
         <v>43621</v>
       </c>
-      <c r="G47" s="19">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
@@ -2140,8 +2197,148 @@
       <c r="F48" s="12">
         <v>43621</v>
       </c>
-      <c r="G48" s="19">
-        <v>43592</v>
+      <c r="G48" s="18">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G49" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G50" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G51" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G52" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G53" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G54" s="12">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G55" s="12">
+        <v>43774</v>
       </c>
     </row>
   </sheetData>
